--- a/Data/NS/NS.C3 - Benchmark 2019 Edited.xlsx
+++ b/Data/NS/NS.C3 - Benchmark 2019 Edited.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NS.C3.original" sheetId="1" r:id="rId1"/>
     <sheet name="NS.C3.letters" sheetId="2" r:id="rId2"/>
     <sheet name="NS.C3.numbers" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16454" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16454" uniqueCount="67">
   <si>
     <t>Student Name</t>
   </si>
@@ -221,16 +221,7 @@
     <t>X</t>
   </si>
   <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>BD</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>O</t>
   </si>
 </sst>
 </file>
@@ -1041,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR208"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AR1"/>
+    <sheetView topLeftCell="Q166" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:AR208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28292,7 +28283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R178" workbookViewId="0">
       <selection activeCell="AG200" sqref="AG200"/>
     </sheetView>
   </sheetViews>
@@ -51577,7 +51568,7 @@
         <v>45</v>
       </c>
       <c r="AE178" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF178" t="s">
         <v>65</v>
@@ -54465,7 +54456,7 @@
         <v>45</v>
       </c>
       <c r="AG200" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AH200" t="s">
         <v>45</v>
@@ -54724,7 +54715,7 @@
         <v>47</v>
       </c>
       <c r="AF202" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AG202" t="s">
         <v>48</v>
@@ -55031,7 +55022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+    <sheetView topLeftCell="A175" workbookViewId="0">
       <selection activeCell="H193" sqref="H193"/>
     </sheetView>
   </sheetViews>
